--- a/113 other and unspecified_COVID/RES 113 other and unspecified age 2020Nov22.xlsx
+++ b/113 other and unspecified_COVID/RES 113 other and unspecified age 2020Nov22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319" count="2682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319" count="2689">
   <si>
     <t>Resident Deaths</t>
   </si>
@@ -110,865 +110,865 @@
     <t>4</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Brevard</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>Broward</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>1,501</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>1,661</t>
+  </si>
+  <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Citrus</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Bay</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>Miami-Dade</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>3,102</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>3,332</t>
+  </si>
+  <si>
+    <t>Desoto</t>
+  </si>
+  <si>
+    <t>Dixie</t>
+  </si>
+  <si>
+    <t>Duval</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>Escambia</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>Flagler</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Gadsden</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Gilchrist</t>
+  </si>
+  <si>
+    <t>Glades</t>
+  </si>
+  <si>
+    <t>Gulf</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Hardee</t>
+  </si>
+  <si>
+    <t>Hendry</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Hillsborough</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Indian River</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Manatee</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Okaloosa</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Okeechobee</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>Osceola</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Palm Beach</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>1,319</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>1,470</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>Pinellas</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Saint Johns</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Saint Lucie</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Seminole</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Sumter</t>
+  </si>
+  <si>
+    <t>Suwannee</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Volusia</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Brevard</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>127</t>
+    <t>327</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>Wakulla</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>1,780</t>
+  </si>
+  <si>
+    <t>3,399</t>
+  </si>
+  <si>
+    <t>4,483</t>
+  </si>
+  <si>
+    <t>4,532</t>
+  </si>
+  <si>
+    <t>15,283</t>
   </si>
   <si>
     <t>136</t>
   </si>
   <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>Broward</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>1,475</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>1,635</t>
-  </si>
-  <si>
-    <t>Calhoun</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Citrus</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Collier</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Miami-Dade</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>3,076</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>943</t>
-  </si>
-  <si>
-    <t>3,306</t>
-  </si>
-  <si>
-    <t>Desoto</t>
-  </si>
-  <si>
-    <t>Dixie</t>
-  </si>
-  <si>
-    <t>Duval</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>Escambia</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>Flagler</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Gadsden</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Gilchrist</t>
-  </si>
-  <si>
-    <t>Glades</t>
-  </si>
-  <si>
-    <t>Gulf</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Hardee</t>
-  </si>
-  <si>
-    <t>Hendry</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Hernando</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Highlands</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Hillsborough</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>876</t>
-  </si>
-  <si>
-    <t>Holmes</t>
-  </si>
-  <si>
-    <t>Indian River</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Lafayette</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Levy</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Manatee</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>Nassau</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Okaloosa</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Okeechobee</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>Osceola</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Palm Beach</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>1,302</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>1,453</t>
-  </si>
-  <si>
-    <t>Pasco</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>Pinellas</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>Polk</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>Putnam</t>
-  </si>
-  <si>
-    <t>Saint Johns</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Saint Lucie</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Sarasota</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>Seminole</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Sumter</t>
-  </si>
-  <si>
-    <t>Suwannee</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Volusia</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>Wakulla</t>
-  </si>
-  <si>
-    <t>Walton</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>1,746</t>
-  </si>
-  <si>
-    <t>3,333</t>
-  </si>
-  <si>
-    <t>4,384</t>
-  </si>
-  <si>
-    <t>4,449</t>
-  </si>
-  <si>
-    <t>14,982</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>2,119</t>
-  </si>
-  <si>
-    <t>3,812</t>
-  </si>
-  <si>
-    <t>4,955</t>
-  </si>
-  <si>
-    <t>4,886</t>
-  </si>
-  <si>
-    <t>17,215</t>
+    <t>807</t>
+  </si>
+  <si>
+    <t>2,153</t>
+  </si>
+  <si>
+    <t>3,878</t>
+  </si>
+  <si>
+    <t>5,054</t>
+  </si>
+  <si>
+    <t>4,969</t>
+  </si>
+  <si>
+    <t>17,516</t>
   </si>
   <si>
     <t>Resident Deaths by Residence County by Year by Age Groups
@@ -2422,19 +2422,19 @@
         <v>46</v>
       </c>
       <c r="CN7" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CO7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="CP7" s="20"/>
       <c r="CQ7" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:95" ht="14.65">
       <c r="A8" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2544,26 +2544,26 @@
         <v>25</v>
       </c>
       <c r="BU8" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BV8" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BW8" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BX8" s="19" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BY8" s="19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="BZ8" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="CA8" s="19"/>
       <c r="CB8" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CC8" s="20" t="s">
         <v>25</v>
@@ -2577,31 +2577,31 @@
         <v>27</v>
       </c>
       <c r="CJ8" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CK8" s="20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="CL8" s="20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="CM8" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CN8" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CO8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="CP8" s="20"/>
       <c r="CQ8" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:95" ht="14.65">
       <c r="A9" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="CA9" s="19"/>
       <c r="CB9" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CC9" s="20"/>
       <c r="CD9" s="20"/>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="CP9" s="20"/>
       <c r="CQ9" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:95" ht="14.65">
       <c r="A10" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>25</v>
@@ -2777,7 +2777,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19" t="s">
@@ -2830,7 +2830,7 @@
         <v>27</v>
       </c>
       <c r="AM10" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AN10" s="19"/>
       <c r="AO10" s="19"/>
@@ -2859,7 +2859,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BA10" s="19"/>
       <c r="BB10" s="19"/>
@@ -2900,20 +2900,20 @@
         <v>44</v>
       </c>
       <c r="BW10" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BX10" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BY10" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BZ10" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="CA10" s="19"/>
       <c r="CB10" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CC10" s="20" t="s">
         <v>25</v>
@@ -2926,34 +2926,34 @@
       <c r="CG10" s="20"/>
       <c r="CH10" s="20"/>
       <c r="CI10" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CJ10" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CK10" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CL10" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="CM10" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CN10" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CO10" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CP10" s="20"/>
       <c r="CQ10" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:95" ht="14.65">
       <c r="A11" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
@@ -2984,7 +2984,7 @@
         <v>43</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -3002,13 +3002,13 @@
         <v>25</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="19" t="s">
         <v>43</v>
@@ -3017,7 +3017,7 @@
         <v>26</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>27</v>
@@ -3047,7 +3047,7 @@
         <v>30</v>
       </c>
       <c r="AM11" s="20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="AN11" s="19"/>
       <c r="AO11" s="19" t="s">
@@ -3062,7 +3062,7 @@
       <c r="AT11" s="19"/>
       <c r="AU11" s="19"/>
       <c r="AV11" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AW11" s="19" t="s">
         <v>28</v>
@@ -3074,7 +3074,7 @@
         <v>28</v>
       </c>
       <c r="AZ11" s="20" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="BA11" s="19" t="s">
         <v>25</v>
@@ -3091,7 +3091,7 @@
         <v>27</v>
       </c>
       <c r="BI11" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BJ11" s="19" t="s">
         <v>43</v>
@@ -3148,7 +3148,7 @@
         <v>26</v>
       </c>
       <c r="CD11" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CE11" s="20" t="s">
         <v>25</v>
@@ -3175,24 +3175,24 @@
         <v>85</v>
       </c>
       <c r="CM11" s="20" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="CN11" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CO11" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CP11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="CQ11" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:95" ht="14.65">
       <c r="A12" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3282,7 +3282,9 @@
       <c r="BY12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BZ12" s="19"/>
+      <c r="BZ12" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="CA12" s="19"/>
       <c r="CB12" s="20" t="s">
         <v>37</v>
@@ -3309,10 +3311,12 @@
       <c r="CN12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="CO12" s="20"/>
+      <c r="CO12" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="CP12" s="20"/>
       <c r="CQ12" s="20" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:95" ht="14.65">
@@ -3340,7 +3344,7 @@
         <v>26</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -3431,7 +3435,7 @@
         <v>27</v>
       </c>
       <c r="BM13" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN13" s="19"/>
       <c r="BO13" s="19"/>
@@ -3447,10 +3451,10 @@
         <v>30</v>
       </c>
       <c r="BW13" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BX13" s="19" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="BY13" s="19" t="s">
         <v>92</v>
@@ -3478,10 +3482,10 @@
         <v>30</v>
       </c>
       <c r="CL13" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CM13" s="20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="CN13" s="20" t="s">
         <v>95</v>
@@ -3601,23 +3605,23 @@
       </c>
       <c r="BU14" s="19"/>
       <c r="BV14" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BW14" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BX14" s="19" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="BY14" s="19" t="s">
         <v>99</v>
       </c>
       <c r="BZ14" s="19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="CA14" s="19"/>
       <c r="CB14" s="20" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
@@ -3632,7 +3636,7 @@
         <v>25</v>
       </c>
       <c r="CK14" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CL14" s="20" t="s">
         <v>28</v>
@@ -3641,7 +3645,7 @@
         <v>74</v>
       </c>
       <c r="CN14" s="20" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="CO14" s="20" t="s">
         <v>101</v>
@@ -3771,20 +3775,20 @@
         <v>28</v>
       </c>
       <c r="BW15" s="19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="BX15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="BY15" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="BZ15" s="19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="CA15" s="19"/>
       <c r="CB15" s="20" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="CC15" s="20" t="s">
         <v>25</v>
@@ -3802,25 +3806,25 @@
         <v>43</v>
       </c>
       <c r="CL15" s="20" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="CM15" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CN15" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="CO15" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CP15" s="20"/>
       <c r="CQ15" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:95" ht="14.65">
       <c r="A16" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -3843,7 +3847,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
@@ -3915,7 +3919,7 @@
         <v>26</v>
       </c>
       <c r="AZ16" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="BA16" s="19"/>
       <c r="BB16" s="19"/>
@@ -3933,7 +3937,7 @@
         <v>25</v>
       </c>
       <c r="BL16" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BM16" s="20" t="s">
         <v>46</v>
@@ -3954,20 +3958,20 @@
         <v>46</v>
       </c>
       <c r="BW16" s="19" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="BX16" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BY16" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BZ16" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="CA16" s="19"/>
       <c r="CB16" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="CC16" s="20"/>
       <c r="CD16" s="20"/>
@@ -3979,31 +3983,31 @@
         <v>27</v>
       </c>
       <c r="CJ16" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CK16" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CL16" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CM16" s="20" t="s">
         <v>83</v>
       </c>
       <c r="CN16" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO16" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CP16" s="20"/>
       <c r="CQ16" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:95" ht="14.65">
       <c r="A17" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>25</v>
@@ -4124,17 +4128,17 @@
         <v>30</v>
       </c>
       <c r="BX17" s="19" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="BY17" s="19" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="BZ17" s="19" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="CA17" s="19"/>
       <c r="CB17" s="20" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="CC17" s="20" t="s">
         <v>25</v>
@@ -4154,25 +4158,25 @@
         <v>26</v>
       </c>
       <c r="CL17" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CM17" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="CN17" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="CO17" s="20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="CP17" s="20"/>
       <c r="CQ17" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:95" ht="14.65">
       <c r="A18" s="18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -4188,7 +4192,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>46</v>
@@ -4203,7 +4207,7 @@
         <v>36</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>25</v>
@@ -4232,13 +4236,13 @@
         <v>36</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA18" s="20" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
@@ -4254,19 +4258,19 @@
         <v>25</v>
       </c>
       <c r="AI18" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ18" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AL18" s="19" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AM18" s="20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AN18" s="19" t="s">
         <v>27</v>
@@ -4297,7 +4301,7 @@
         <v>28</v>
       </c>
       <c r="AZ18" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BA18" s="19" t="s">
         <v>27</v>
@@ -4312,7 +4316,7 @@
         <v>25</v>
       </c>
       <c r="BG18" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BH18" s="19" t="s">
         <v>43</v>
@@ -4324,13 +4328,13 @@
         <v>46</v>
       </c>
       <c r="BK18" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BL18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="BM18" s="20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="BN18" s="19" t="s">
         <v>25</v>
@@ -4347,29 +4351,29 @@
         <v>25</v>
       </c>
       <c r="BT18" s="19" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="BU18" s="19" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="BV18" s="19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BW18" s="19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="BX18" s="19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="BY18" s="19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BZ18" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="CA18" s="19"/>
       <c r="CB18" s="20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="CC18" s="20" t="s">
         <v>28</v>
@@ -4390,34 +4394,34 @@
         <v>27</v>
       </c>
       <c r="CI18" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CJ18" s="20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="CK18" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="CL18" s="20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="CM18" s="20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="CN18" s="20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="CO18" s="20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="CP18" s="20"/>
       <c r="CQ18" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:95" ht="14.65">
       <c r="A19" s="18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -4512,17 +4516,17 @@
         <v>30</v>
       </c>
       <c r="BX19" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BY19" s="19" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="BZ19" s="19" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="CA19" s="19"/>
       <c r="CB19" s="20" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="CC19" s="20"/>
       <c r="CD19" s="20"/>
@@ -4546,19 +4550,19 @@
         <v>31</v>
       </c>
       <c r="CN19" s="20" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="CO19" s="20" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="CP19" s="20"/>
       <c r="CQ19" s="20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:95" ht="14.65">
       <c r="A20" s="18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -4692,12 +4696,12 @@
       </c>
       <c r="CP20" s="20"/>
       <c r="CQ20" s="20" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:95" ht="14.65">
       <c r="A21" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -4726,7 +4730,7 @@
         <v>27</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
@@ -4741,10 +4745,10 @@
         <v>25</v>
       </c>
       <c r="W21" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="X21" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y21" s="19" t="s">
         <v>25</v>
@@ -4753,7 +4757,7 @@
         <v>27</v>
       </c>
       <c r="AA21" s="20" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
@@ -4777,7 +4781,7 @@
         <v>30</v>
       </c>
       <c r="AM21" s="20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="AN21" s="19" t="s">
         <v>25</v>
@@ -4804,7 +4808,7 @@
         <v>26</v>
       </c>
       <c r="AZ21" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="BA21" s="19"/>
       <c r="BB21" s="19"/>
@@ -4822,7 +4826,7 @@
         <v>29</v>
       </c>
       <c r="BJ21" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BK21" s="19" t="s">
         <v>29</v>
@@ -4850,23 +4854,23 @@
         <v>28</v>
       </c>
       <c r="BV21" s="19" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="BW21" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="BX21" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BY21" s="19" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="BZ21" s="19" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="CA21" s="19"/>
       <c r="CB21" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="CC21" s="20" t="s">
         <v>25</v>
@@ -4886,31 +4890,31 @@
         <v>29</v>
       </c>
       <c r="CJ21" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CK21" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="CL21" s="20" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="CM21" s="20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="CN21" s="20" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="CO21" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="CP21" s="20"/>
       <c r="CQ21" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:95" ht="14.65">
       <c r="A22" s="18" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -5030,22 +5034,22 @@
         <v>25</v>
       </c>
       <c r="BU22" s="19" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="BV22" s="19" t="s">
         <v>46</v>
       </c>
       <c r="BW22" s="19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="BX22" s="19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BY22" s="19" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="BZ22" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="CA22" s="19"/>
       <c r="CB22" s="20" t="s">
@@ -5065,31 +5069,31 @@
         <v>25</v>
       </c>
       <c r="CJ22" s="20" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="CK22" s="20" t="s">
         <v>46</v>
       </c>
       <c r="CL22" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CM22" s="20" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="CN22" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO22" s="20" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="CP22" s="20"/>
       <c r="CQ22" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:95" ht="14.65">
       <c r="A23" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -5198,10 +5202,10 @@
         <v>26</v>
       </c>
       <c r="BX23" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BY23" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BZ23" s="19" t="s">
         <v>29</v>
@@ -5225,22 +5229,22 @@
         <v>28</v>
       </c>
       <c r="CM23" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CN23" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="CO23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="CP23" s="20"/>
       <c r="CQ23" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:95" ht="14.65">
       <c r="A24" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -5371,7 +5375,7 @@
     </row>
     <row r="25" spans="1:95" ht="14.65">
       <c r="A25" s="18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -5466,23 +5470,23 @@
       <c r="BT25" s="19"/>
       <c r="BU25" s="19"/>
       <c r="BV25" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BW25" s="19" t="s">
         <v>29</v>
       </c>
       <c r="BX25" s="19" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="BY25" s="19" t="s">
         <v>36</v>
       </c>
       <c r="BZ25" s="19" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CA25" s="19"/>
       <c r="CB25" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="CC25" s="20" t="s">
         <v>25</v>
@@ -5499,28 +5503,28 @@
         <v>27</v>
       </c>
       <c r="CK25" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CL25" s="20" t="s">
         <v>29</v>
       </c>
       <c r="CM25" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CN25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="CO25" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CP25" s="20"/>
       <c r="CQ25" s="20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:95" ht="14.65">
       <c r="A26" s="18" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -5619,7 +5623,7 @@
       </c>
       <c r="CA26" s="19"/>
       <c r="CB26" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CC26" s="20"/>
       <c r="CD26" s="20"/>
@@ -5649,7 +5653,7 @@
     </row>
     <row r="27" spans="1:95" ht="14.65">
       <c r="A27" s="18" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -5734,7 +5738,7 @@
         <v>25</v>
       </c>
       <c r="BX27" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BY27" s="19" t="s">
         <v>29</v>
@@ -5761,7 +5765,7 @@
         <v>25</v>
       </c>
       <c r="CM27" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CN27" s="20" t="s">
         <v>29</v>
@@ -5771,12 +5775,12 @@
       </c>
       <c r="CP27" s="20"/>
       <c r="CQ27" s="20" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:95" ht="14.65">
       <c r="A28" s="18" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -5865,7 +5869,7 @@
       </c>
       <c r="CA28" s="19"/>
       <c r="CB28" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CC28" s="20"/>
       <c r="CD28" s="20"/>
@@ -5890,12 +5894,12 @@
       </c>
       <c r="CP28" s="20"/>
       <c r="CQ28" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:95" ht="14.65">
       <c r="A29" s="18" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -5975,7 +5979,9 @@
       <c r="BQ29" s="19"/>
       <c r="BR29" s="19"/>
       <c r="BS29" s="19"/>
-      <c r="BT29" s="19"/>
+      <c r="BT29" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="BU29" s="19"/>
       <c r="BV29" s="19"/>
       <c r="BW29" s="19" t="s">
@@ -6000,7 +6006,9 @@
       <c r="CF29" s="20"/>
       <c r="CG29" s="20"/>
       <c r="CH29" s="20"/>
-      <c r="CI29" s="20"/>
+      <c r="CI29" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="CJ29" s="20" t="s">
         <v>25</v>
       </c>
@@ -6019,12 +6027,12 @@
       </c>
       <c r="CP29" s="20"/>
       <c r="CQ29" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:95" ht="14.65">
       <c r="A30" s="18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6101,15 +6109,17 @@
       <c r="BR30" s="19"/>
       <c r="BS30" s="19"/>
       <c r="BT30" s="19"/>
-      <c r="BU30" s="19"/>
+      <c r="BU30" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="BV30" s="19" t="s">
         <v>27</v>
       </c>
       <c r="BW30" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BX30" s="19" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="BY30" s="19" t="s">
         <v>26</v>
@@ -6119,7 +6129,7 @@
       </c>
       <c r="CA30" s="19"/>
       <c r="CB30" s="20" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="CC30" s="20"/>
       <c r="CD30" s="20"/>
@@ -6128,15 +6138,17 @@
       <c r="CG30" s="20"/>
       <c r="CH30" s="20"/>
       <c r="CI30" s="20"/>
-      <c r="CJ30" s="20"/>
+      <c r="CJ30" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="CK30" s="20" t="s">
         <v>27</v>
       </c>
       <c r="CL30" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CM30" s="20" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="CN30" s="20" t="s">
         <v>30</v>
@@ -6146,12 +6158,12 @@
       </c>
       <c r="CP30" s="20"/>
       <c r="CQ30" s="20" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:95" ht="14.65">
       <c r="A31" s="18" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6256,7 +6268,7 @@
       </c>
       <c r="CA31" s="19"/>
       <c r="CB31" s="20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="CC31" s="20"/>
       <c r="CD31" s="20"/>
@@ -6278,19 +6290,19 @@
         <v>36</v>
       </c>
       <c r="CN31" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CO31" s="20" t="s">
         <v>43</v>
       </c>
       <c r="CP31" s="20"/>
       <c r="CQ31" s="20" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:95" ht="14.65">
       <c r="A32" s="18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6398,7 +6410,7 @@
         <v>25</v>
       </c>
       <c r="BM32" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN32" s="19"/>
       <c r="BO32" s="19"/>
@@ -6416,20 +6428,20 @@
         <v>25</v>
       </c>
       <c r="BW32" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BX32" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BY32" s="19" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="BZ32" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CA32" s="19"/>
       <c r="CB32" s="20" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="CC32" s="20"/>
       <c r="CD32" s="20"/>
@@ -6447,25 +6459,25 @@
         <v>26</v>
       </c>
       <c r="CL32" s="20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="CM32" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="CN32" s="20" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="CO32" s="20" t="s">
         <v>76</v>
       </c>
       <c r="CP32" s="20"/>
       <c r="CQ32" s="20" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:95" ht="14.65">
       <c r="A33" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6576,23 +6588,23 @@
       </c>
       <c r="BU33" s="19"/>
       <c r="BV33" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BW33" s="19" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="BX33" s="19" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="BY33" s="19" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="BZ33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CA33" s="19"/>
       <c r="CB33" s="20" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="CC33" s="20"/>
       <c r="CD33" s="20"/>
@@ -6605,28 +6617,28 @@
       </c>
       <c r="CJ33" s="20"/>
       <c r="CK33" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CL33" s="20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="CM33" s="20" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="CN33" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CO33" s="20" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="CP33" s="20"/>
       <c r="CQ33" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:95" ht="14.65">
       <c r="A34" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>26</v>
@@ -6651,13 +6663,13 @@
         <v>26</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O34" s="19" t="s">
         <v>25</v>
@@ -6679,7 +6691,7 @@
         <v>46</v>
       </c>
       <c r="X34" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y34" s="19" t="s">
         <v>30</v>
@@ -6688,7 +6700,7 @@
         <v>29</v>
       </c>
       <c r="AA34" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB34" s="19" t="s">
         <v>25</v>
@@ -6718,7 +6730,7 @@
         <v>29</v>
       </c>
       <c r="AM34" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AN34" s="19" t="s">
         <v>25</v>
@@ -6773,10 +6785,10 @@
         <v>28</v>
       </c>
       <c r="BL34" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BM34" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BN34" s="19"/>
       <c r="BO34" s="19" t="s">
@@ -6795,23 +6807,23 @@
         <v>43</v>
       </c>
       <c r="BV34" s="19" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="BW34" s="19" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="BX34" s="19" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="BY34" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BZ34" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CA34" s="19"/>
       <c r="CB34" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CC34" s="20" t="s">
         <v>28</v>
@@ -6833,10 +6845,10 @@
         <v>26</v>
       </c>
       <c r="CJ34" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CK34" s="20" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="CL34" s="20" t="s">
         <v>170</v>
@@ -6848,16 +6860,16 @@
         <v>172</v>
       </c>
       <c r="CO34" s="20" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="CP34" s="20"/>
       <c r="CQ34" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:95" ht="14.65">
       <c r="A35" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6950,7 +6962,7 @@
         <v>29</v>
       </c>
       <c r="BZ35" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CA35" s="19"/>
       <c r="CB35" s="20" t="s">
@@ -6979,16 +6991,16 @@
         <v>29</v>
       </c>
       <c r="CO35" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CP35" s="20"/>
       <c r="CQ35" s="20" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:95" ht="14.65">
       <c r="A36" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -7102,16 +7114,16 @@
         <v>26</v>
       </c>
       <c r="BW36" s="19" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="BX36" s="19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="BY36" s="19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="BZ36" s="19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CA36" s="19"/>
       <c r="CB36" s="20" t="s">
@@ -7135,25 +7147,25 @@
         <v>30</v>
       </c>
       <c r="CL36" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="CM36" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CN36" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CO36" s="20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="CP36" s="20"/>
       <c r="CQ36" s="20" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:95" ht="14.65">
       <c r="A37" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -7252,17 +7264,17 @@
         <v>28</v>
       </c>
       <c r="BX37" s="19" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="BY37" s="19" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="BZ37" s="19" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="CA37" s="19"/>
       <c r="CB37" s="20" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="CC37" s="20"/>
       <c r="CD37" s="20"/>
@@ -7281,22 +7293,22 @@
         <v>43</v>
       </c>
       <c r="CM37" s="20" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="CN37" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CO37" s="20" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="CP37" s="20"/>
       <c r="CQ37" s="20" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:95" ht="14.65">
       <c r="A38" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -7429,7 +7441,7 @@
     </row>
     <row r="39" spans="1:95" ht="14.65">
       <c r="A39" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -7514,15 +7526,17 @@
         <v>25</v>
       </c>
       <c r="BX39" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="BY39" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="BY39" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="BZ39" s="19" t="s">
         <v>30</v>
       </c>
       <c r="CA39" s="19"/>
       <c r="CB39" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CC39" s="20"/>
       <c r="CD39" s="20"/>
@@ -7539,10 +7553,10 @@
         <v>25</v>
       </c>
       <c r="CM39" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CN39" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CO39" s="20" t="s">
         <v>30</v>
@@ -7554,7 +7568,7 @@
     </row>
     <row r="40" spans="1:95" ht="14.65">
       <c r="A40" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -7670,7 +7684,7 @@
         <v>26</v>
       </c>
       <c r="BM40" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BN40" s="19" t="s">
         <v>25</v>
@@ -7689,23 +7703,23 @@
         <v>26</v>
       </c>
       <c r="BV40" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BW40" s="19" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="BX40" s="19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BY40" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="BZ40" s="19" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="CA40" s="19"/>
       <c r="CB40" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CC40" s="20" t="s">
         <v>25</v>
@@ -7729,16 +7743,16 @@
         <v>31</v>
       </c>
       <c r="CL40" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="CM40" s="20" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="CN40" s="20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="CO40" s="20" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="CP40" s="20"/>
       <c r="CQ40" s="20" t="s">
@@ -7801,7 +7815,7 @@
         <v>29</v>
       </c>
       <c r="AA41" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AB41" s="19" t="s">
         <v>27</v>
@@ -7825,7 +7839,7 @@
         <v>29</v>
       </c>
       <c r="AM41" s="20" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AN41" s="19" t="s">
         <v>27</v>
@@ -7841,16 +7855,16 @@
         <v>27</v>
       </c>
       <c r="AW41" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AX41" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AY41" s="19" t="s">
         <v>29</v>
       </c>
       <c r="AZ41" s="20" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="BA41" s="19"/>
       <c r="BB41" s="19"/>
@@ -7875,7 +7889,7 @@
         <v>25</v>
       </c>
       <c r="BM41" s="20" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="BN41" s="19"/>
       <c r="BO41" s="19"/>
@@ -7892,16 +7906,16 @@
         <v>46</v>
       </c>
       <c r="BV41" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BW41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX41" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="BX41" s="19" t="s">
+      <c r="BY41" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="BY41" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="BZ41" s="19" t="s">
         <v>190</v>
@@ -7931,28 +7945,28 @@
         <v>44</v>
       </c>
       <c r="CK41" s="20" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="CL41" s="20" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="CM41" s="20" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="CN41" s="20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="CO41" s="20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CP41" s="20"/>
       <c r="CQ41" s="20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:95" ht="14.65">
       <c r="A42" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -8062,7 +8076,7 @@
         <v>25</v>
       </c>
       <c r="BM42" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN42" s="19"/>
       <c r="BO42" s="19"/>
@@ -8084,20 +8098,20 @@
         <v>26</v>
       </c>
       <c r="BW42" s="19" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="BX42" s="19" t="s">
         <v>34</v>
       </c>
       <c r="BY42" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BZ42" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CA42" s="19"/>
       <c r="CB42" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="CC42" s="20" t="s">
         <v>25</v>
@@ -8121,25 +8135,25 @@
         <v>29</v>
       </c>
       <c r="CL42" s="20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="CM42" s="20" t="s">
         <v>40</v>
       </c>
       <c r="CN42" s="20" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="CO42" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CP42" s="20"/>
       <c r="CQ42" s="20" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:95" ht="14.65">
       <c r="A43" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -8243,14 +8257,14 @@
         <v>28</v>
       </c>
       <c r="BY43" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BZ43" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CA43" s="19"/>
       <c r="CB43" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="CC43" s="20"/>
       <c r="CD43" s="20"/>
@@ -8281,12 +8295,12 @@
       </c>
       <c r="CP43" s="20"/>
       <c r="CQ43" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:95" ht="14.65">
       <c r="A44" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -8368,14 +8382,14 @@
         <v>27</v>
       </c>
       <c r="BY44" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BZ44" s="19" t="s">
         <v>25</v>
       </c>
       <c r="CA44" s="19"/>
       <c r="CB44" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CC44" s="20"/>
       <c r="CD44" s="20"/>
@@ -8393,19 +8407,19 @@
         <v>27</v>
       </c>
       <c r="CN44" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CO44" s="20" t="s">
         <v>25</v>
       </c>
       <c r="CP44" s="20"/>
       <c r="CQ44" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:95" ht="14.65">
       <c r="A45" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -8500,7 +8514,7 @@
       </c>
       <c r="CA45" s="19"/>
       <c r="CB45" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CC45" s="20"/>
       <c r="CD45" s="20"/>
@@ -8515,7 +8529,7 @@
       </c>
       <c r="CL45" s="20"/>
       <c r="CM45" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CN45" s="20" t="s">
         <v>30</v>
@@ -8525,12 +8539,12 @@
       </c>
       <c r="CP45" s="20"/>
       <c r="CQ45" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:95" ht="14.65">
       <c r="A46" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -8625,7 +8639,7 @@
         <v>25</v>
       </c>
       <c r="AZ46" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BA46" s="19" t="s">
         <v>25</v>
@@ -8648,7 +8662,7 @@
         <v>27</v>
       </c>
       <c r="BM46" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN46" s="19" t="s">
         <v>25</v>
@@ -8661,29 +8675,29 @@
       </c>
       <c r="BS46" s="19"/>
       <c r="BT46" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BU46" s="19" t="s">
         <v>36</v>
       </c>
       <c r="BV46" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BW46" s="19" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="BX46" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BY46" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BZ46" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CA46" s="19"/>
       <c r="CB46" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CC46" s="20" t="s">
         <v>27</v>
@@ -8698,34 +8712,34 @@
         <v>25</v>
       </c>
       <c r="CI46" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CJ46" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CK46" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CL46" s="20" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="CM46" s="20" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="CN46" s="20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CO46" s="20" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="CP46" s="20"/>
       <c r="CQ46" s="20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:95" ht="14.65">
       <c r="A47" s="18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -8737,7 +8751,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>26</v>
@@ -8773,7 +8787,7 @@
         <v>25</v>
       </c>
       <c r="AA47" s="20" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AB47" s="19"/>
       <c r="AC47" s="19"/>
@@ -8797,7 +8811,7 @@
         <v>26</v>
       </c>
       <c r="AM47" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AN47" s="19"/>
       <c r="AO47" s="19"/>
@@ -8820,7 +8834,7 @@
         <v>26</v>
       </c>
       <c r="AZ47" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BA47" s="19"/>
       <c r="BB47" s="19"/>
@@ -8858,23 +8872,23 @@
         <v>27</v>
       </c>
       <c r="BV47" s="19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="BW47" s="19" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="BX47" s="19" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="BY47" s="19" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="BZ47" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CA47" s="19"/>
       <c r="CB47" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CC47" s="20"/>
       <c r="CD47" s="20" t="s">
@@ -8894,25 +8908,25 @@
         <v>31</v>
       </c>
       <c r="CL47" s="20" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="CM47" s="20" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="CN47" s="20" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="CO47" s="20" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="CP47" s="20"/>
       <c r="CQ47" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:95" ht="14.65">
       <c r="A48" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -9018,7 +9032,7 @@
         <v>25</v>
       </c>
       <c r="BM48" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN48" s="19"/>
       <c r="BO48" s="19"/>
@@ -9037,17 +9051,17 @@
         <v>29</v>
       </c>
       <c r="BX48" s="19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="BY48" s="19" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="BZ48" s="19" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="CA48" s="19"/>
       <c r="CB48" s="20" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="CC48" s="20"/>
       <c r="CD48" s="20"/>
@@ -9064,13 +9078,13 @@
         <v>27</v>
       </c>
       <c r="CK48" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CL48" s="20" t="s">
         <v>43</v>
       </c>
       <c r="CM48" s="20" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="CN48" s="20" t="s">
         <v>76</v>
@@ -9080,12 +9094,12 @@
       </c>
       <c r="CP48" s="20"/>
       <c r="CQ48" s="20" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:95" ht="14.65">
       <c r="A49" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -9192,11 +9206,11 @@
         <v>36</v>
       </c>
       <c r="BZ49" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CA49" s="19"/>
       <c r="CB49" s="20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="CC49" s="20"/>
       <c r="CD49" s="20"/>
@@ -9215,22 +9229,22 @@
         <v>29</v>
       </c>
       <c r="CM49" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CN49" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CO49" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CP49" s="20"/>
       <c r="CQ49" s="20" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:95" ht="14.65">
       <c r="A50" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -9329,7 +9343,7 @@
       <c r="BT50" s="19"/>
       <c r="BU50" s="19"/>
       <c r="BV50" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BW50" s="19" t="s">
         <v>28</v>
@@ -9338,14 +9352,14 @@
         <v>44</v>
       </c>
       <c r="BY50" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BZ50" s="19" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="CA50" s="19"/>
       <c r="CB50" s="20" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="CC50" s="20"/>
       <c r="CD50" s="20"/>
@@ -9358,19 +9372,19 @@
       <c r="CI50" s="20"/>
       <c r="CJ50" s="20"/>
       <c r="CK50" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CL50" s="20" t="s">
         <v>36</v>
       </c>
       <c r="CM50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN50" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="CN50" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="CO50" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="CP50" s="20"/>
       <c r="CQ50" s="20" t="s">
@@ -9488,19 +9502,19 @@
         <v>27</v>
       </c>
       <c r="BV51" s="19" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="BW51" s="19" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="BX51" s="19" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="BY51" s="19" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="BZ51" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="CA51" s="19"/>
       <c r="CB51" s="20" t="s">
@@ -9521,28 +9535,28 @@
         <v>27</v>
       </c>
       <c r="CK51" s="20" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="CL51" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CM51" s="20" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="CN51" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CO51" s="20" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="CP51" s="20"/>
       <c r="CQ51" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:95" ht="14.65">
       <c r="A52" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -9640,20 +9654,20 @@
         <v>27</v>
       </c>
       <c r="BW52" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BX52" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BY52" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BZ52" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="CA52" s="19"/>
       <c r="CB52" s="20" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="CC52" s="20"/>
       <c r="CD52" s="20"/>
@@ -9673,25 +9687,25 @@
         <v>27</v>
       </c>
       <c r="CL52" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CM52" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="CN52" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CO52" s="20" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="CP52" s="20"/>
       <c r="CQ52" s="20" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:95" ht="14.65">
       <c r="A53" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>25</v>
@@ -9724,7 +9738,7 @@
         <v>29</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="O53" s="19"/>
       <c r="P53" s="19" t="s">
@@ -9744,16 +9758,16 @@
       </c>
       <c r="W53" s="19"/>
       <c r="X53" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y53" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Z53" s="19" t="s">
         <v>30</v>
       </c>
       <c r="AA53" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AB53" s="19" t="s">
         <v>27</v>
@@ -9782,10 +9796,10 @@
         <v>29</v>
       </c>
       <c r="AL53" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AM53" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN53" s="19" t="s">
         <v>27</v>
@@ -9811,7 +9825,7 @@
         <v>25</v>
       </c>
       <c r="AW53" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AX53" s="19" t="s">
         <v>25</v>
@@ -9820,7 +9834,7 @@
         <v>25</v>
       </c>
       <c r="AZ53" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BA53" s="19"/>
       <c r="BB53" s="19" t="s">
@@ -9837,7 +9851,7 @@
         <v>29</v>
       </c>
       <c r="BI53" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BJ53" s="19" t="s">
         <v>30</v>
@@ -9849,7 +9863,7 @@
         <v>29</v>
       </c>
       <c r="BM53" s="20" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="BN53" s="19"/>
       <c r="BO53" s="19"/>
@@ -9863,13 +9877,13 @@
         <v>29</v>
       </c>
       <c r="BU53" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BV53" s="19" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="BW53" s="19" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="BX53" s="19" t="s">
         <v>228</v>
@@ -9904,19 +9918,19 @@
         <v>46</v>
       </c>
       <c r="CJ53" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CK53" s="20" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="CL53" s="20" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="CM53" s="20" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="CN53" s="20" t="s">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="CO53" s="20" t="s">
         <v>233</v>
@@ -9949,7 +9963,7 @@
         <v>27</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -10038,7 +10052,7 @@
         <v>25</v>
       </c>
       <c r="BM54" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN54" s="19"/>
       <c r="BO54" s="19"/>
@@ -10056,20 +10070,20 @@
         <v>46</v>
       </c>
       <c r="BW54" s="19" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="BX54" s="19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="BY54" s="19" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="BZ54" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="CA54" s="19"/>
       <c r="CB54" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CC54" s="20"/>
       <c r="CD54" s="20"/>
@@ -10086,28 +10100,28 @@
         <v>36</v>
       </c>
       <c r="CK54" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CL54" s="20" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="CM54" s="20" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="CN54" s="20" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="CO54" s="20" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="CP54" s="20"/>
       <c r="CQ54" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:95" ht="14.65">
       <c r="A55" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>25</v>
@@ -10130,7 +10144,7 @@
         <v>25</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K55" s="19" t="s">
         <v>29</v>
@@ -10169,7 +10183,7 @@
         <v>28</v>
       </c>
       <c r="AA55" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
@@ -10195,7 +10209,7 @@
         <v>29</v>
       </c>
       <c r="AM55" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AN55" s="19" t="s">
         <v>25</v>
@@ -10217,16 +10231,16 @@
         <v>27</v>
       </c>
       <c r="AW55" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AX55" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AY55" s="19" t="s">
         <v>43</v>
       </c>
       <c r="AZ55" s="20" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="BA55" s="19"/>
       <c r="BB55" s="19"/>
@@ -10255,7 +10269,7 @@
         <v>29</v>
       </c>
       <c r="BM55" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="BN55" s="19" t="s">
         <v>26</v>
@@ -10271,16 +10285,16 @@
         <v>29</v>
       </c>
       <c r="BU55" s="19" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="BV55" s="19" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="BW55" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BX55" s="19" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="BY55" s="19" t="s">
         <v>239</v>
@@ -10293,7 +10307,7 @@
         <v>241</v>
       </c>
       <c r="CC55" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CD55" s="20" t="s">
         <v>27</v>
@@ -10312,13 +10326,13 @@
         <v>28</v>
       </c>
       <c r="CJ55" s="20" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="CK55" s="20" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="CL55" s="20" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="CM55" s="20" t="s">
         <v>243</v>
@@ -10386,7 +10400,7 @@
         <v>27</v>
       </c>
       <c r="AA56" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AB56" s="19"/>
       <c r="AC56" s="19" t="s">
@@ -10435,7 +10449,7 @@
         <v>25</v>
       </c>
       <c r="AZ56" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BA56" s="19"/>
       <c r="BB56" s="19"/>
@@ -10473,19 +10487,19 @@
         <v>25</v>
       </c>
       <c r="BV56" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BW56" s="19" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BX56" s="19" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="BY56" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="BZ56" s="19" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="CA56" s="19"/>
       <c r="CB56" s="20" t="s">
@@ -10508,19 +10522,19 @@
         <v>26</v>
       </c>
       <c r="CK56" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CL56" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CM56" s="20" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="CN56" s="20" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="CO56" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="CP56" s="20"/>
       <c r="CQ56" s="20" t="s">
@@ -10558,7 +10572,7 @@
         <v>30</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O57" s="19"/>
       <c r="P57" s="19" t="s">
@@ -10587,7 +10601,7 @@
         <v>28</v>
       </c>
       <c r="AA57" s="20" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="AB57" s="19"/>
       <c r="AC57" s="19"/>
@@ -10599,19 +10613,19 @@
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ57" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AK57" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL57" s="19" t="s">
         <v>43</v>
       </c>
       <c r="AM57" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AN57" s="19" t="s">
         <v>25</v>
@@ -10642,7 +10656,7 @@
         <v>43</v>
       </c>
       <c r="AZ57" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BA57" s="19"/>
       <c r="BB57" s="19"/>
@@ -10660,7 +10674,7 @@
         <v>43</v>
       </c>
       <c r="BJ57" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BK57" s="19" t="s">
         <v>46</v>
@@ -10669,7 +10683,7 @@
         <v>28</v>
       </c>
       <c r="BM57" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BN57" s="19" t="s">
         <v>25</v>
@@ -10685,22 +10699,22 @@
         <v>27</v>
       </c>
       <c r="BU57" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BV57" s="19" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="BW57" s="19" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="BX57" s="19" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="BY57" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ57" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="BZ57" s="19" t="s">
-        <v>193</v>
       </c>
       <c r="CA57" s="19"/>
       <c r="CB57" s="20" t="s">
@@ -10719,34 +10733,34 @@
       </c>
       <c r="CH57" s="20"/>
       <c r="CI57" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CJ57" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CK57" s="20" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="CL57" s="20" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="CM57" s="20" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="CN57" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CO57" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CP57" s="20"/>
       <c r="CQ57" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:95" ht="14.65">
       <c r="A58" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -10773,7 +10787,7 @@
         <v>25</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O58" s="19" t="s">
         <v>27</v>
@@ -10800,7 +10814,7 @@
         <v>30</v>
       </c>
       <c r="AA58" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB58" s="19"/>
       <c r="AC58" s="19"/>
@@ -10824,7 +10838,7 @@
         <v>26</v>
       </c>
       <c r="AM58" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN58" s="19"/>
       <c r="AO58" s="19"/>
@@ -10851,7 +10865,7 @@
         <v>26</v>
       </c>
       <c r="AZ58" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BA58" s="19"/>
       <c r="BB58" s="19"/>
@@ -10864,7 +10878,7 @@
         <v>25</v>
       </c>
       <c r="BI58" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BJ58" s="19" t="s">
         <v>29</v>
@@ -10876,7 +10890,7 @@
         <v>25</v>
       </c>
       <c r="BM58" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BN58" s="19"/>
       <c r="BO58" s="19"/>
@@ -10885,16 +10899,16 @@
       <c r="BR58" s="19"/>
       <c r="BS58" s="19"/>
       <c r="BT58" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BU58" s="19" t="s">
         <v>46</v>
       </c>
       <c r="BV58" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BW58" s="19" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="BX58" s="19" t="s">
         <v>258</v>
@@ -10926,10 +10940,10 @@
         <v>36</v>
       </c>
       <c r="CK58" s="20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="CL58" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CM58" s="20" t="s">
         <v>262</v>
@@ -11068,17 +11082,17 @@
         <v>43</v>
       </c>
       <c r="BX59" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BY59" s="19" t="s">
         <v>36</v>
       </c>
       <c r="BZ59" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CA59" s="19"/>
       <c r="CB59" s="20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="CC59" s="20" t="s">
         <v>25</v>
@@ -11103,17 +11117,17 @@
         <v>36</v>
       </c>
       <c r="CM59" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="CN59" s="20" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="CO59" s="20" t="s">
         <v>44</v>
       </c>
       <c r="CP59" s="20"/>
       <c r="CQ59" s="20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:95" ht="14.65">
@@ -11243,17 +11257,17 @@
         <v>26</v>
       </c>
       <c r="BX60" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BY60" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BZ60" s="19" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="CA60" s="19"/>
       <c r="CB60" s="20" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="CC60" s="20"/>
       <c r="CD60" s="20" t="s">
@@ -11276,22 +11290,22 @@
         <v>30</v>
       </c>
       <c r="CM60" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="CN60" s="20" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="CO60" s="20" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="CP60" s="20"/>
       <c r="CQ60" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:95" ht="14.65">
       <c r="A61" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -11422,23 +11436,23 @@
         <v>26</v>
       </c>
       <c r="BV61" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BW61" s="19" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="BX61" s="19" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="BY61" s="19" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="BZ61" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CA61" s="19"/>
       <c r="CB61" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CC61" s="20"/>
       <c r="CD61" s="20" t="s">
@@ -11460,16 +11474,16 @@
         <v>44</v>
       </c>
       <c r="CL61" s="20" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="CM61" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="CN61" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="CN61" s="20" t="s">
-        <v>269</v>
-      </c>
       <c r="CO61" s="20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CP61" s="20"/>
       <c r="CQ61" s="20" t="s">
@@ -11593,17 +11607,17 @@
         <v>43</v>
       </c>
       <c r="BX62" s="19" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="BY62" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BZ62" s="19" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="CA62" s="19"/>
       <c r="CB62" s="20" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="CC62" s="20"/>
       <c r="CD62" s="20"/>
@@ -11621,25 +11635,25 @@
         <v>27</v>
       </c>
       <c r="CL62" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CM62" s="20" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="CN62" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CO62" s="20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="CP62" s="20"/>
       <c r="CQ62" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:95" ht="14.65">
       <c r="A63" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -11708,10 +11722,10 @@
         <v>26</v>
       </c>
       <c r="AL63" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AM63" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN63" s="19"/>
       <c r="AO63" s="19"/>
@@ -11756,10 +11770,10 @@
         <v>26</v>
       </c>
       <c r="BL63" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BM63" s="20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="BN63" s="19"/>
       <c r="BO63" s="19"/>
@@ -11774,23 +11788,23 @@
         <v>29</v>
       </c>
       <c r="BV63" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BW63" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BX63" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BY63" s="19" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="BZ63" s="19" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="CA63" s="19"/>
       <c r="CB63" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="CC63" s="20" t="s">
         <v>25</v>
@@ -11813,22 +11827,22 @@
         <v>40</v>
       </c>
       <c r="CM63" s="20" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="CN63" s="20" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="CO63" s="20" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="CP63" s="20"/>
       <c r="CQ63" s="20" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:95" ht="14.65">
       <c r="A64" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -11957,23 +11971,23 @@
         <v>29</v>
       </c>
       <c r="BV64" s="19" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="BW64" s="19" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="BX64" s="19" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="BY64" s="19" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="BZ64" s="19" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="CA64" s="19"/>
       <c r="CB64" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CC64" s="20" t="s">
         <v>25</v>
@@ -11990,7 +12004,7 @@
         <v>29</v>
       </c>
       <c r="CK64" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CL64" s="20" t="s">
         <v>34</v>
@@ -11999,14 +12013,14 @@
         <v>83</v>
       </c>
       <c r="CN64" s="20" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="CO64" s="20" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="CP64" s="20"/>
       <c r="CQ64" s="20" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:95" ht="14.65">
@@ -12057,7 +12071,7 @@
       </c>
       <c r="Z65" s="19"/>
       <c r="AA65" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB65" s="19"/>
       <c r="AC65" s="19" t="s">
@@ -12098,7 +12112,7 @@
         <v>25</v>
       </c>
       <c r="AZ65" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BA65" s="19" t="s">
         <v>25</v>
@@ -12135,20 +12149,20 @@
         <v>26</v>
       </c>
       <c r="BW65" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BX65" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY65" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ65" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="BY65" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ65" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="CA65" s="19"/>
       <c r="CB65" s="20" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="CC65" s="20" t="s">
         <v>25</v>
@@ -12170,20 +12184,20 @@
         <v>26</v>
       </c>
       <c r="CL65" s="20" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="CM65" s="20" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="CN65" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CO65" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CP65" s="20"/>
       <c r="CQ65" s="20" t="s">
-        <v>84</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:95" ht="14.65">
@@ -12291,17 +12305,17 @@
         <v>28</v>
       </c>
       <c r="BX66" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BY66" s="19" t="s">
         <v>33</v>
       </c>
       <c r="BZ66" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CA66" s="19"/>
       <c r="CB66" s="20" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="CC66" s="20" t="s">
         <v>25</v>
@@ -12322,17 +12336,17 @@
         <v>28</v>
       </c>
       <c r="CM66" s="20" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="CN66" s="20" t="s">
         <v>34</v>
       </c>
       <c r="CO66" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CP66" s="20"/>
       <c r="CQ66" s="20" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:95" ht="14.65">
@@ -12423,14 +12437,14 @@
         <v>43</v>
       </c>
       <c r="BY67" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ67" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CA67" s="19"/>
       <c r="CB67" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="CC67" s="20"/>
       <c r="CD67" s="20"/>
@@ -12452,14 +12466,14 @@
         <v>43</v>
       </c>
       <c r="CN67" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CO67" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CP67" s="20"/>
       <c r="CQ67" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:95" ht="14.65">
@@ -12568,20 +12582,20 @@
         <v>26</v>
       </c>
       <c r="BW68" s="19" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="BX68" s="19" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BY68" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BZ68" s="19" t="s">
         <v>26</v>
       </c>
       <c r="CA68" s="19"/>
       <c r="CB68" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="CC68" s="20" t="s">
         <v>25</v>
@@ -12597,10 +12611,10 @@
         <v>29</v>
       </c>
       <c r="CL68" s="20" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="CM68" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CN68" s="20" t="s">
         <v>44</v>
@@ -12610,7 +12624,7 @@
       </c>
       <c r="CP68" s="20"/>
       <c r="CQ68" s="20" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:95" ht="14.65">
@@ -12640,7 +12654,7 @@
       </c>
       <c r="M69" s="19"/>
       <c r="N69" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
@@ -12656,7 +12670,7 @@
         <v>26</v>
       </c>
       <c r="X69" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y69" s="19" t="s">
         <v>29</v>
@@ -12665,7 +12679,7 @@
         <v>26</v>
       </c>
       <c r="AA69" s="20" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
@@ -12681,13 +12695,13 @@
         <v>30</v>
       </c>
       <c r="AK69" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL69" s="19" t="s">
         <v>30</v>
       </c>
       <c r="AM69" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN69" s="19"/>
       <c r="AO69" s="19"/>
@@ -12712,13 +12726,13 @@
         <v>26</v>
       </c>
       <c r="AX69" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AY69" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AZ69" s="20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="BA69" s="19"/>
       <c r="BB69" s="19"/>
@@ -12745,7 +12759,7 @@
         <v>27</v>
       </c>
       <c r="BM69" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="BN69" s="19"/>
       <c r="BO69" s="19"/>
@@ -12759,26 +12773,26 @@
         <v>26</v>
       </c>
       <c r="BU69" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BV69" s="19" t="s">
         <v>31</v>
       </c>
       <c r="BW69" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BX69" s="19" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="BY69" s="19" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="BZ69" s="19" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="CA69" s="19"/>
       <c r="CB69" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CC69" s="20"/>
       <c r="CD69" s="20"/>
@@ -12791,25 +12805,25 @@
         <v>27</v>
       </c>
       <c r="CI69" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CJ69" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CK69" s="20" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="CL69" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CM69" s="20" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="CN69" s="20" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="CO69" s="20" t="s">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c r="CP69" s="20"/>
       <c r="CQ69" s="20" t="s">
@@ -12915,10 +12929,10 @@
         <v>27</v>
       </c>
       <c r="BX70" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BY70" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ70" s="19" t="s">
         <v>25</v>
@@ -12947,7 +12961,7 @@
         <v>43</v>
       </c>
       <c r="CN70" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CO70" s="20" t="s">
         <v>25</v>
@@ -13052,17 +13066,17 @@
         <v>27</v>
       </c>
       <c r="BX71" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BY71" s="19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BZ71" s="19" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="CA71" s="19"/>
       <c r="CB71" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CC71" s="20"/>
       <c r="CD71" s="20"/>
@@ -13081,17 +13095,17 @@
         <v>26</v>
       </c>
       <c r="CM71" s="20" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="CN71" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CO71" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CP71" s="20"/>
       <c r="CQ71" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:95" ht="14.65">
@@ -13178,7 +13192,7 @@
         <v>25</v>
       </c>
       <c r="BW72" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BX72" s="19" t="s">
         <v>29</v>
@@ -13191,7 +13205,7 @@
       </c>
       <c r="CA72" s="19"/>
       <c r="CB72" s="20" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="CC72" s="20"/>
       <c r="CD72" s="20"/>
@@ -13205,7 +13219,7 @@
         <v>25</v>
       </c>
       <c r="CL72" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CM72" s="20" t="s">
         <v>29</v>
@@ -13353,7 +13367,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>28</v>
@@ -13368,28 +13382,28 @@
         <v>27</v>
       </c>
       <c r="G74" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H74" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I74" s="20" t="s">
-        <v>40</v>
-      </c>
       <c r="J74" s="20" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="L74" s="20" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N74" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O74" s="20" t="s">
         <v>46</v>
@@ -13407,28 +13421,28 @@
         <v>29</v>
       </c>
       <c r="T74" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U74" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V74" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Y74" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z74" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA74" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="Z74" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA74" s="20" t="s">
-        <v>299</v>
       </c>
       <c r="AB74" s="20" t="s">
         <v>43</v>
@@ -13446,25 +13460,25 @@
         <v>26</v>
       </c>
       <c r="AG74" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH74" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AI74" s="20" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="AJ74" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AK74" s="20" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="AL74" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM74" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="AM74" s="20" t="s">
-        <v>301</v>
       </c>
       <c r="AN74" s="20" t="s">
         <v>44</v>
@@ -13482,28 +13496,28 @@
         <v>26</v>
       </c>
       <c r="AS74" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AT74" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AU74" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AV74" s="20" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="AW74" s="20" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="AX74" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AY74" s="20" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="AZ74" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BA74" s="20" t="s">
         <v>43</v>
@@ -13524,22 +13538,22 @@
         <v>28</v>
       </c>
       <c r="BG74" s="20" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="BH74" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BI74" s="20" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="BJ74" s="20" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="BK74" s="20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="BL74" s="20" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="BM74" s="20" t="s">
         <v>303</v>
@@ -13560,10 +13574,10 @@
         <v>28</v>
       </c>
       <c r="BS74" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="BT74" s="20" t="s">
-        <v>279</v>
+        <v>84</v>
       </c>
       <c r="BU74" s="20" t="s">
         <v>304</v>
@@ -13590,28 +13604,28 @@
         <v>310</v>
       </c>
       <c r="CC74" s="20" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD74" s="20" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="CE74" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="CF74" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CG74" s="20" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="CH74" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CI74" s="20" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="CJ74" s="20" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="CK74" s="20" t="s">
         <v>312</v>
